--- a/logfc_Analysis/logfc_phyD_HC/meta_phyDflt_r.xlsx
+++ b/logfc_Analysis/logfc_phyD_HC/meta_phyDflt_r.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\NASA_GeneLab\logfc_Analysis\logfc_phyD_HC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F888BFAB-CE27-4D9C-A669-CB7666F1CA40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF036B3-B8CD-4558-80AA-AE5F50335F08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7932" yWindow="780" windowWidth="14016" windowHeight="8964" xr2:uid="{8BF12FCF-21AE-4B70-A5F4-6E689C994EE1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="12036" windowHeight="8964" xr2:uid="{8BF12FCF-21AE-4B70-A5F4-6E689C994EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unknown(.1), Mitochondrion(.2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NM_001345016</t>
   </si>
   <si>
@@ -326,6 +322,10 @@
   </si>
   <si>
     <t>CYCB1;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma membrane</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,7 +693,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -807,7 +807,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -865,10 +865,10 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
         <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
       </c>
       <c r="F7">
         <v>835372</v>
@@ -882,51 +882,51 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
         <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
       </c>
       <c r="F8">
         <v>821254</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
         <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
       </c>
       <c r="F9">
         <v>821455</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
@@ -934,45 +934,45 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
         <v>54</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
         <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
       </c>
       <c r="F10">
         <v>827854</v>
       </c>
       <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
         <v>58</v>
-      </c>
-      <c r="H10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>61</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
         <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>63</v>
       </c>
       <c r="F11">
         <v>842991</v>
@@ -981,30 +981,30 @@
         <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
         <v>65</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>66</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
         <v>67</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>68</v>
       </c>
       <c r="F12">
         <v>816391</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
         <v>39</v>
@@ -1012,25 +1012,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
         <v>70</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
         <v>72</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
       </c>
       <c r="F13">
         <v>829038</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
         <v>39</v>
@@ -1038,80 +1038,80 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
         <v>75</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>76</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
         <v>77</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>78</v>
       </c>
       <c r="F14">
         <v>834082</v>
       </c>
       <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
         <v>79</v>
-      </c>
-      <c r="H14" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
         <v>81</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>82</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
         <v>83</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>84</v>
       </c>
       <c r="F15">
         <v>835822</v>
       </c>
       <c r="G15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" t="s">
         <v>85</v>
-      </c>
-      <c r="H15" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
         <v>87</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>88</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
         <v>89</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>90</v>
       </c>
       <c r="F16">
         <v>836267</v>
       </c>
       <c r="G16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s">
         <v>91</v>
-      </c>
-      <c r="H16" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
